--- a/Files/data/xlsx_data/HAU_Scientific_Final.xlsx
+++ b/Files/data/xlsx_data/HAU_Scientific_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BirdnetProject\Files\data\xlsx_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5080680-D8ED-49EC-9634-B04477C77A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9A1E11-DDBD-41AD-B2E8-C6904C5402AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,10 +400,10 @@
     <t>Common House Martin, Siberian House Martin, Nepal House Martin, Asian House Martin</t>
   </si>
   <si>
-    <t>Pied wagtail</t>
-  </si>
-  <si>
-    <t>African Pied Wagtail</t>
+    <t>White wagtail</t>
+  </si>
+  <si>
+    <t>Motacilla alba</t>
   </si>
 </sst>
 </file>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4178,9 +4178,9 @@
         <v>126</v>
       </c>
       <c r="G121" t="s">
-        <v>127</v>
-      </c>
-      <c r="I121" t="s">
+        <v>126</v>
+      </c>
+      <c r="H121" t="s">
         <v>127</v>
       </c>
     </row>
